--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\git\ProgettoBD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7531E4-6A25-4942-A0E2-026C5FB66D54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D49E71D-0E12-438A-AD54-D0DC219C64D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A70D44CA-A307-4421-B551-D8801C4A42D4}"/>
   </bookViews>
@@ -282,10 +282,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00A765C-431E-4DB2-8247-61563033D6E7}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -651,7 +651,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -712,7 +712,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\git\ProgettoBD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D49E71D-0E12-438A-AD54-D0DC219C64D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312747F6-75E3-41D1-A1CB-1CC64274E268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A70D44CA-A307-4421-B551-D8801C4A42D4}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>CITY</t>
   </si>
   <si>
-    <t>VIOLATION CODE</t>
-  </si>
-  <si>
     <t>VIOLATION DESCRIPTION</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>basso A risk</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00A765C-431E-4DB2-8247-61563033D6E7}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +673,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -691,16 +694,13 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,32 +812,32 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,12 +855,12 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,16 +877,13 @@
       <c r="A49" t="s">
         <v>24</v>
       </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,6 +923,9 @@
       <c r="A60" t="s">
         <v>38</v>
       </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -990,7 +990,7 @@
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
